--- a/utils/data.xlsx
+++ b/utils/data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="9540" tabRatio="684" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="9540" tabRatio="684" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="分析结果" sheetId="4" r:id="rId1"/>
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">对比文献申请国为非中国!$A$2:$K$102</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="340">
   <si>
     <t>中到英跨语言检索测试结果分析</t>
   </si>
@@ -1042,19 +1042,43 @@
   <si>
     <t>clms:opening  clms:definition  clms:structure  clms:element  clms:joint  abs:face  clms:assembly  clms:center  clms:second part  clms:length and  clms:first side  clms:width  clms:opening  clms:opposite side  clms:face  clms:first end  clms:composite  clms:plurality of openings  abs:width  clms:remote controller  clms:structural member  clms:cladding part  clms:extension  clms:overlapping  abs:length and  abs:web  clms:face-to-face  clms:forming  clms:leading edge skin  clms:skin assembly  clms:edge plate  clms:connecting convex  clms:lateral extension  clms:board  clms:trailing edge  clms:flange member  abs:board  clms:web  clms:wing beam  clms:skin  clms:composite material  clms:outer peripheral edge  clms:flange  clms:upper chord  clms:lower chord  clms:board  clms:web  clms:web member  clms:wing rib  clms:upper chord member  clms:lower chord member  clms:flange plate</t>
   </si>
+  <si>
+    <t xml:space="preserve">abs:stator  abs:sheet  ti:motor  abs:leg </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">clms:output  clms:spring  abs:sensor  clms:operation  clms:shaft  clms:response  clms:application  clms:bottom  clms:inclination  clms:control circuit  clms:direction extension  clms:compression  clms:feedback  clms:assembly  clms:side  abs:electromagnet  clms:sensing  clms:magnetic force  clms:control  clms:circuit control  clms:centering  abs:definition  abs:essence  kw:pivot  clms:axis extension  clms:selectable ground  clms:tungsten carbide  clms:sensor  clms:supporting element  clms:pipe control  clms:available  clms:circuit  clms:rotating device  clms:displacer  clms:positioning  abs:pivot  clms:feedback circuit  clms:perpendicular to  clms:element pivoting  clms:element fixation  clms:configuration  clms:element  clms:meshing  clms:essence  clms:annular magnet  abs:plane  clms:mutual contact  clms:positioning axis  abs:planar element  abs:pivot support  clms:electromagnet  abs:position part  clms:pivoting ground  clms:pivot point  clms:axis configuration  clms:pivot  clms:pivot support  clms:element surrounding  clms:position part  clms:fixed magnet  clms:ball  clms:planar element  clms:plane  clms:tilting device </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>abs:treatment  clms:anti-  clms:enhancement  clms:local  abs:preparation  clms:prevention  clms:foot  abs:biological activity  clms:approach  clms:cancer  clms:treatment method  clms:therapeutic performance  clms:melanoma  kw:cancer cell  clms:angiogenesis  clms:contact  clms:non-human body  clms:cell apoptosis  abs:composition  clms:sexual therapy  clms:in-vivo  clms:lung cancer  clms:human  clms:migration  clms:proliferation  clms:prostate cancer  clms:derivative  abs:monoclonal antibody  clms:ovarian cancer  clms:pancreatic cancer  clms:treatment  clms:apoptosis-inducing effect  clms:kidney cancer  clms:known  clms:fragment  clms:tumor cell  clms:carrier  clms:intestines and stomach  clms:mammal  abs:antibody  abs:immunogen  clms:cancer  clms:glioblastoma  clms:neuroblastoma  clms:tumor metastasis  clms:breast cancer  abs:derivation  clms:leukemia  clms:variable body  abs:derivative  clms:colon  clms:polyclonal antibody  clms:toxin agent  clms:rectal cancer  clms:pharmacy  clms:reactivity  clms:multi-shape  abs:lipid  clms:suspicion  clms:composition  clms:animal  clms:tumor  clms:measuring instrument  clms:patient  clms:magnetic separator  clms:receiving carrier  clms:effective concentration  clms:cell  clms:separation  clms:subject  clms:monoclonal antibody  clms:application  clms:cancer cell  clms:monoclonal antibody  clms:lysophosphatidylic acid  clms:chimeric antibody  clms:optional  clms:derivation  clms:immunity clms: hepatocellular carcinoma clms:suppression clms:multi-clone</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">abs:aggregation  abs:representation module  abs:field data  abs:electronic watch </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">abs:receiving device  abs:signal  abs:transmission  abs:coupling  abs:coupler  kw:radio frequency  ti:radio frequency  abs:radio frequency signal  abs:first signal  abs:base band  ti:receiver  abs:voltage  abs:label information  kw:frequency signal  abs:adjusting signal  abs:frequency signal </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>clms:存储 clms:存储器 abs:准确 clms:基 clms:应 clms:显示器 clms:类型 abs:自适应 clms:显示 kw:滤波器 clms:对称 clms:性 clms:请求 clms:可用 clms:选择性地 clms:系统资源 clms:关联 clms:变换 clms:比例放大 clms:红色 kw:内插 clms:斜距 abs:比例放大 clms:蓝色 abs:内插 clms:数据结构 clms:存储区 clms:s-1 clms:距离 clms:素 clms:缩 clms:区 clms:质量 clms:编码 clms:基于图像 clms:相邻 clms:结构中 clms:放像 clms:调节 clms:执行 clms:比例 clms:检索 clms:放大图像 clms:内容特征 clms:设定 clms:多个数据 clms:多个区 clms:相关联 abs:内插技术 clms:亮度 clms:存取 clms:绿色 clms:响应 clms:信道 clms:信道确定 clms:计算机 clms:等式 clms:颜色格式 clms:相邻像素 clms:指令 clms:空间不变 clms:致使 clms:值 clms:图像 clms:可读媒体 clms:强度值 clms:处理器 clms:像素 clms:强度 clms:′ clms:对称性 clms:偏 clms:空间变化 clms:像素的 clms:内插 clms:滤波器 clms:斜距离 clms:比例缩放</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>clms:storage  clms:memory  abs:accurate  clms:base  clms:stress  clms:displayer  clms:type  abs:self-adaptive  clms:display  kw:filter  clms:symmetry  clms:performance  clms:request  clms:available  clms:selective ground  clms:system resources  clms:association  clms:transformation  clms:proportional amplification  clms:red  kw:internal plug  clms:pitch  abs:proportional amplification  clms:blue  abs:internal plug  clms:data structure  clms:storage area  clms:s -1  clms:distance  clms:pixel  clms:scale  clms:zone  clms:quality  clms:coding  clms:image based on image  clms:adjacent  clms:structure  clms:image pick-up device  clms:adjustment  clms:execution  clms:proportion  clms:retrieval  clms:amplified image  clms:content feature  clms:setting  clms:multiple data  clms:multiple zones  clms:associated  abs:interpolation technology  clms:brightness  clms:access  clms:green  clms:response  clms:channel  clms:channel determination  clms:computer  clms:equation  clms:color format  clms:adjacent pixel  clms:instruction  clms:space unchanged  clms:cause  clms:value  clms:image  clms:readable medium  clms:strength value  clms:processor  clms:pixel  clms:strength  clms:'  clms:symmetry  clms:deviation  clms:spatial variation  clms:pixel  clms:internal plug  clms:filter  clms:inclined distance  clms:proportional scaling</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0%"/>
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1090,151 +1114,20 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1243,13 +1136,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
+        <fgColor theme="0" tint="-0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149937437055574"/>
+        <fgColor theme="0" tint="-0.14990691854609822"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1261,7 +1154,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1271,188 +1164,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="23">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1656,255 +1369,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1913,9 +1384,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1956,18 +1424,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1989,10 +1445,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2001,28 +1478,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2034,85 +1520,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2403,12 +1851,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2417,494 +1865,457 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="27" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="4.625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="9.25" style="27" customWidth="1"/>
-    <col min="5" max="5" width="7.25" style="27" customWidth="1"/>
-    <col min="6" max="7" width="13.25" style="27" customWidth="1"/>
-    <col min="8" max="8" width="4.625" style="27" customWidth="1"/>
-    <col min="9" max="9" width="9.25" style="27" customWidth="1"/>
-    <col min="10" max="10" width="8.5" style="27" customWidth="1"/>
-    <col min="11" max="12" width="13.25" style="27" customWidth="1"/>
-    <col min="13" max="13" width="4.625" style="27" customWidth="1"/>
-    <col min="14" max="14" width="9.25" style="27" customWidth="1"/>
-    <col min="15" max="15" width="8.5" style="27" customWidth="1"/>
-    <col min="16" max="17" width="13.25" style="27" customWidth="1"/>
-    <col min="18" max="18" width="4.625" style="27" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="27"/>
+    <col min="1" max="1" width="13.25" style="22" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="4.625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="22" customWidth="1"/>
+    <col min="5" max="5" width="7.25" style="22" customWidth="1"/>
+    <col min="6" max="7" width="13.25" style="22" customWidth="1"/>
+    <col min="8" max="8" width="4.625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="9.25" style="22" customWidth="1"/>
+    <col min="10" max="10" width="8.5" style="22" customWidth="1"/>
+    <col min="11" max="12" width="13.25" style="22" customWidth="1"/>
+    <col min="13" max="13" width="4.625" style="22" customWidth="1"/>
+    <col min="14" max="14" width="9.25" style="22" customWidth="1"/>
+    <col min="15" max="15" width="8.5" style="22" customWidth="1"/>
+    <col min="16" max="17" width="13.25" style="22" customWidth="1"/>
+    <col min="18" max="18" width="4.625" style="22" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" customHeight="1" spans="1:20">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:20" ht="40.5" customHeight="1">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="43"/>
-    </row>
-    <row r="2" ht="25.5" customHeight="1" spans="1:20">
-      <c r="A2" s="30" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="31"/>
+    </row>
+    <row r="2" spans="1:20" ht="25.5" customHeight="1">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31" t="s">
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="44"/>
-    </row>
-    <row r="3" ht="20.1" customHeight="1" spans="1:20">
-      <c r="A3" s="32" t="s">
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="34"/>
+    </row>
+    <row r="3" spans="1:20" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="33" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="33" t="s">
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="33" t="s">
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="25" t="s">
+      <c r="Q3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="45"/>
-    </row>
-    <row r="4" ht="20.1" customHeight="1" spans="1:20">
-      <c r="A4" s="32" t="s">
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="36"/>
+    </row>
+    <row r="4" spans="1:20" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="33" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="33" t="s">
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="L4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="33" t="s">
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="26" t="s">
+      <c r="Q4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="46"/>
-    </row>
-    <row r="5" ht="20.1" customHeight="1" spans="1:20">
-      <c r="A5" s="32" t="s">
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="38"/>
+    </row>
+    <row r="5" spans="1:20" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="35">
         <v>59</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="33" t="s">
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="35">
         <v>59</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="33" t="s">
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="35">
         <v>59</v>
       </c>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="33" t="s">
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="25">
+      <c r="Q5" s="35">
         <v>59</v>
       </c>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="45"/>
-    </row>
-    <row r="6" ht="20.1" customHeight="1" spans="1:20">
-      <c r="A6" s="32"/>
-      <c r="B6" s="25" t="s">
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="36"/>
+    </row>
+    <row r="6" spans="1:20" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="49"/>
+      <c r="B6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="20">
         <v>7</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="25">
         <f>C6/B5</f>
-        <v>0.11864406779661</v>
-      </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="25" t="s">
+        <v>0.11864406779661001</v>
+      </c>
+      <c r="F6" s="39"/>
+      <c r="G6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25" t="s">
+      <c r="H6" s="20"/>
+      <c r="I6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6" s="25">
         <f>H6/G5</f>
         <v>0</v>
       </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="25" t="s">
+      <c r="K6" s="39"/>
+      <c r="L6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25" t="s">
+      <c r="M6" s="20"/>
+      <c r="N6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="O6" s="34">
+      <c r="O6" s="25">
         <f>M6/L5</f>
         <v>0</v>
       </c>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="25" t="s">
+      <c r="P6" s="39"/>
+      <c r="Q6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25" t="s">
+      <c r="R6" s="20"/>
+      <c r="S6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="T6" s="47">
+      <c r="T6" s="28">
         <f>R6/Q5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="20.1" customHeight="1" spans="1:20">
-      <c r="A7" s="32" t="s">
+    <row r="7" spans="1:20" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33" t="s">
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33" t="s">
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="33" t="s">
+      <c r="L7" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33" t="s">
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="33" t="s">
+      <c r="Q7" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="48"/>
-    </row>
-    <row r="8" ht="20.1" customHeight="1" spans="1:20">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36" t="s">
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="40"/>
+    </row>
+    <row r="8" spans="1:20" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="50"/>
+      <c r="B8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="36" t="s">
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="H8" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="36" t="s">
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="37" t="s">
+      <c r="M8" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="36" t="s">
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="R8" s="37" t="s">
+      <c r="R8" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="37"/>
-      <c r="T8" s="49"/>
-    </row>
-    <row r="9" ht="20.1" customHeight="1" spans="1:20">
-      <c r="A9" s="35"/>
-      <c r="B9" s="36" t="s">
+      <c r="S8" s="41"/>
+      <c r="T8" s="42"/>
+    </row>
+    <row r="9" spans="1:20" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="50"/>
+      <c r="B9" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="41">
         <v>10</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="36" t="s">
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="36" t="s">
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="36" t="s">
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="49"/>
-    </row>
-    <row r="10" ht="20.1" customHeight="1" spans="1:20">
-      <c r="A10" s="35"/>
-      <c r="B10" s="38" t="s">
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="42"/>
+    </row>
+    <row r="10" spans="1:20" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="50"/>
+      <c r="B10" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="43">
         <v>0.1</v>
       </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="38" t="s">
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="43">
         <f>H9/H8</f>
         <v>0</v>
       </c>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="38" t="s">
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="39">
+      <c r="M10" s="43">
         <f>M9/M8</f>
         <v>0</v>
       </c>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="38" t="s">
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="R10" s="39">
+      <c r="R10" s="43">
         <f>R9/R8</f>
         <v>0</v>
       </c>
-      <c r="S10" s="39"/>
-      <c r="T10" s="50"/>
-    </row>
-    <row r="11" ht="20.1" customHeight="1" spans="1:20">
-      <c r="A11" s="35"/>
-      <c r="B11" s="36" t="s">
+      <c r="S10" s="43"/>
+      <c r="T10" s="44"/>
+    </row>
+    <row r="11" spans="1:20" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="50"/>
+      <c r="B11" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="36" t="s">
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="36" t="s">
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="36" t="s">
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="49"/>
-    </row>
-    <row r="12" ht="69.95" customHeight="1" spans="1:20">
-      <c r="A12" s="40" t="s">
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="42"/>
+    </row>
+    <row r="12" spans="1:20" ht="69.95" customHeight="1">
+      <c r="A12" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="42" t="s">
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="42" t="s">
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="42" t="s">
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="51"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="R11:T11"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="F12:J12"/>
     <mergeCell ref="K12:O12"/>
@@ -2917,16 +2328,52 @@
     <mergeCell ref="K8:K11"/>
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="P8:P11"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="P2:T2"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -2945,2999 +2392,2999 @@
     <col min="11" max="11" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:11" ht="15" customHeight="1">
+      <c r="A1" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="17" t="s">
+      <c r="C1" s="52"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="16" t="s">
+      <c r="J1" s="53"/>
+      <c r="K1" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" s="14" customFormat="1" ht="33" customHeight="1" spans="1:11">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="1:11" s="13" customFormat="1" ht="33" customHeight="1">
+      <c r="A2" s="56"/>
+      <c r="B2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:11">
-      <c r="A3" s="11">
+    <row r="3" spans="1:11" ht="15" customHeight="1">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="23" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="25" t="s">
+      <c r="H3" s="12"/>
+      <c r="I3" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:11">
-      <c r="A4" s="11">
+      <c r="K3" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13" t="s">
+      <c r="F4" s="12"/>
+      <c r="G4" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="25" t="s">
+      <c r="H4" s="12"/>
+      <c r="I4" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:11">
-      <c r="A5" s="11">
+      <c r="K4" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="25" t="s">
+      <c r="H5" s="12"/>
+      <c r="I5" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:11">
-      <c r="A6" s="11">
+      <c r="K5" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="23" t="s">
+      <c r="F6" s="12"/>
+      <c r="G6" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="25" t="s">
+      <c r="H6" s="12"/>
+      <c r="I6" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:11">
-      <c r="A7" s="11">
+      <c r="K6" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13" t="s">
+      <c r="F7" s="12"/>
+      <c r="G7" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="25" t="s">
+      <c r="H7" s="12"/>
+      <c r="I7" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:11">
-      <c r="A8" s="11">
+      <c r="K7" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1">
+      <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13" t="s">
+      <c r="F8" s="12"/>
+      <c r="G8" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="25" t="s">
+      <c r="H8" s="12"/>
+      <c r="I8" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:11">
-      <c r="A9" s="11">
+      <c r="K8" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1">
+      <c r="A9" s="10">
         <v>7</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13" t="s">
+      <c r="F9" s="12"/>
+      <c r="G9" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="25" t="s">
+      <c r="H9" s="12"/>
+      <c r="I9" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="21">
         <v>18</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:11">
-      <c r="A10" s="11">
+    <row r="10" spans="1:11" ht="15" customHeight="1">
+      <c r="A10" s="10">
         <v>8</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13" t="s">
+      <c r="F10" s="12"/>
+      <c r="G10" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="25" t="s">
+      <c r="H10" s="12"/>
+      <c r="I10" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="J10" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="26">
+      <c r="K10" s="21">
         <v>17</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:11">
-      <c r="A11" s="11">
+    <row r="11" spans="1:11" ht="15" customHeight="1">
+      <c r="A11" s="10">
         <v>9</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13" t="s">
+      <c r="F11" s="12"/>
+      <c r="G11" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="25" t="s">
+      <c r="H11" s="12"/>
+      <c r="I11" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="J11" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K11" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:11">
-      <c r="A12" s="11">
+      <c r="K11" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1">
+      <c r="A12" s="10">
         <v>10</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13" t="s">
+      <c r="F12" s="12"/>
+      <c r="G12" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="25" t="s">
+      <c r="H12" s="12"/>
+      <c r="I12" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="J12" s="25" t="s">
+      <c r="J12" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K12" s="26">
+      <c r="K12" s="21">
         <v>15</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:11">
-      <c r="A13" s="11">
+    <row r="13" spans="1:11" ht="15" customHeight="1">
+      <c r="A13" s="10">
         <v>11</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13" t="s">
+      <c r="F13" s="12"/>
+      <c r="G13" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="25" t="s">
+      <c r="H13" s="12"/>
+      <c r="I13" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="J13" s="25" t="s">
+      <c r="J13" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K13" s="26">
+      <c r="K13" s="21">
         <v>20</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:11">
-      <c r="A14" s="11">
+    <row r="14" spans="1:11" ht="15" customHeight="1">
+      <c r="A14" s="10">
         <v>12</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13" t="s">
+      <c r="F14" s="12"/>
+      <c r="G14" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="25" t="s">
+      <c r="H14" s="12"/>
+      <c r="I14" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="J14" s="25" t="s">
+      <c r="J14" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K14" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:11">
-      <c r="A15" s="11">
+      <c r="K14" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1">
+      <c r="A15" s="10">
         <v>13</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13" t="s">
+      <c r="F15" s="12"/>
+      <c r="G15" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="25" t="s">
+      <c r="H15" s="12"/>
+      <c r="I15" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="J15" s="25" t="s">
+      <c r="J15" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K15" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:11">
-      <c r="A16" s="11">
+      <c r="K15" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1">
+      <c r="A16" s="10">
         <v>14</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13" t="s">
+      <c r="F16" s="12"/>
+      <c r="G16" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="25" t="s">
+      <c r="H16" s="12"/>
+      <c r="I16" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="J16" s="25" t="s">
+      <c r="J16" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K16" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:11">
-      <c r="A17" s="11">
+      <c r="K16" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1">
+      <c r="A17" s="10">
         <v>15</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13" t="s">
+      <c r="F17" s="12"/>
+      <c r="G17" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="25" t="s">
+      <c r="H17" s="12"/>
+      <c r="I17" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="J17" s="25" t="s">
+      <c r="J17" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K17" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:11">
-      <c r="A18" s="11">
+      <c r="K17" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1">
+      <c r="A18" s="10">
         <v>16</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13" t="s">
+      <c r="F18" s="12"/>
+      <c r="G18" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="25" t="s">
+      <c r="H18" s="12"/>
+      <c r="I18" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="J18" s="25" t="s">
+      <c r="J18" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K18" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:11">
-      <c r="A19" s="11">
+      <c r="K18" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1">
+      <c r="A19" s="10">
         <v>17</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13" t="s">
+      <c r="F19" s="12"/>
+      <c r="G19" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="25" t="s">
+      <c r="H19" s="12"/>
+      <c r="I19" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="J19" s="25" t="s">
+      <c r="J19" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K19" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:11">
-      <c r="A20" s="11">
+      <c r="K19" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1">
+      <c r="A20" s="10">
         <v>18</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13" t="s">
+      <c r="F20" s="12"/>
+      <c r="G20" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="25" t="s">
+      <c r="H20" s="12"/>
+      <c r="I20" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="J20" s="25" t="s">
+      <c r="J20" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K20" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" s="15" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A21" s="11">
+      <c r="K20" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1">
+      <c r="A21" s="10">
         <v>19</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13" t="s">
+      <c r="F21" s="12"/>
+      <c r="G21" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="25" t="s">
+      <c r="H21" s="12"/>
+      <c r="I21" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="J21" s="25" t="s">
+      <c r="J21" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K21" s="25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:11">
-      <c r="A22" s="11">
+      <c r="K21" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1">
+      <c r="A22" s="10">
         <v>20</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13" t="s">
+      <c r="F22" s="12"/>
+      <c r="G22" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="25" t="s">
+      <c r="H22" s="12"/>
+      <c r="I22" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="J22" s="25" t="s">
+      <c r="J22" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K22" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:11">
-      <c r="A23" s="11">
+      <c r="K22" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1">
+      <c r="A23" s="10">
         <v>21</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13" t="s">
+      <c r="F23" s="12"/>
+      <c r="G23" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="25" t="s">
+      <c r="H23" s="12"/>
+      <c r="I23" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="J23" s="25" t="s">
+      <c r="J23" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K23" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:11">
-      <c r="A24" s="11">
+      <c r="K23" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1">
+      <c r="A24" s="10">
         <v>22</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="25" t="s">
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="J24" s="25" t="s">
+      <c r="J24" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K24" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="1:11">
-      <c r="A25" s="11">
+      <c r="K24" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1">
+      <c r="A25" s="10">
         <v>23</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="25" t="s">
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="J25" s="25" t="s">
+      <c r="J25" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K25" s="26">
+      <c r="K25" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:11">
-      <c r="A26" s="11">
+    <row r="26" spans="1:11" ht="15" customHeight="1">
+      <c r="A26" s="10">
         <v>24</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="25" t="s">
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="J26" s="25" t="s">
+      <c r="J26" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K26" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="1:11">
-      <c r="A27" s="11">
+      <c r="K26" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1">
+      <c r="A27" s="10">
         <v>25</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="25" t="s">
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="J27" s="25" t="s">
+      <c r="J27" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K27" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="1:11">
-      <c r="A28" s="11">
+      <c r="K27" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1">
+      <c r="A28" s="10">
         <v>26</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="25" t="s">
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="J28" s="25" t="s">
+      <c r="J28" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K28" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="1:11">
-      <c r="A29" s="11">
+      <c r="K28" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1">
+      <c r="A29" s="10">
         <v>27</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="25" t="s">
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="J29" s="25" t="s">
+      <c r="J29" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K29" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="1:11">
-      <c r="A30" s="11">
+      <c r="K29" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1">
+      <c r="A30" s="10">
         <v>28</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="25" t="s">
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="J30" s="25" t="s">
+      <c r="J30" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K30" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:11">
-      <c r="A31" s="11">
+      <c r="K30" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15" customHeight="1">
+      <c r="A31" s="10">
         <v>29</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="25" t="s">
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="J31" s="25" t="s">
+      <c r="J31" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K31" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="1:11">
-      <c r="A32" s="11">
+      <c r="K31" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1">
+      <c r="A32" s="10">
         <v>30</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="25" t="s">
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="J32" s="25" t="s">
+      <c r="J32" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K32" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="1:11">
-      <c r="A33" s="11">
+      <c r="K32" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15" customHeight="1">
+      <c r="A33" s="10">
         <v>31</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="25" t="s">
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="J33" s="25" t="s">
+      <c r="J33" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K33" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="1:11">
-      <c r="A34" s="11">
+      <c r="K33" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15" customHeight="1">
+      <c r="A34" s="10">
         <v>32</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="25" t="s">
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="J34" s="25" t="s">
+      <c r="J34" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K34" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="1:11">
-      <c r="A35" s="11">
+      <c r="K34" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15" customHeight="1">
+      <c r="A35" s="10">
         <v>33</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="25" t="s">
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="J35" s="25" t="s">
+      <c r="J35" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K35" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="1:11">
-      <c r="A36" s="11">
+      <c r="K35" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15" customHeight="1">
+      <c r="A36" s="10">
         <v>34</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="25" t="s">
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="J36" s="25" t="s">
+      <c r="J36" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K36" s="26">
+      <c r="K36" s="21">
         <v>200</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:11">
-      <c r="A37" s="11">
+    <row r="37" spans="1:11" ht="15" customHeight="1">
+      <c r="A37" s="10">
         <v>35</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="25" t="s">
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="J37" s="25" t="s">
+      <c r="J37" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K37" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="1:11">
-      <c r="A38" s="11">
+      <c r="K37" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15" customHeight="1">
+      <c r="A38" s="10">
         <v>36</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="25" t="s">
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="J38" s="25" t="s">
+      <c r="J38" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K38" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="1:11">
-      <c r="A39" s="11">
+      <c r="K38" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15" customHeight="1">
+      <c r="A39" s="10">
         <v>37</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="25" t="s">
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="J39" s="25" t="s">
+      <c r="J39" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K39" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="1:11">
-      <c r="A40" s="11">
+      <c r="K39" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15" customHeight="1">
+      <c r="A40" s="10">
         <v>38</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="25" t="s">
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="J40" s="25" t="s">
+      <c r="J40" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K40" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="1:11">
-      <c r="A41" s="11">
+      <c r="K40" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15" customHeight="1">
+      <c r="A41" s="10">
         <v>39</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="25" t="s">
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="J41" s="25" t="s">
+      <c r="J41" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K41" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="1:11">
-      <c r="A42" s="11">
+      <c r="K41" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15" customHeight="1">
+      <c r="A42" s="10">
         <v>40</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="E42" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="25" t="s">
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="J42" s="25" t="s">
+      <c r="J42" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K42" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="1:11">
-      <c r="A43" s="11">
-        <v>41</v>
-      </c>
-      <c r="B43" s="12" t="s">
+      <c r="K42" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15" customHeight="1">
+      <c r="A43" s="10">
+        <v>41</v>
+      </c>
+      <c r="B43" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="25" t="s">
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="J43" s="25" t="s">
+      <c r="J43" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K43" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="1:11">
-      <c r="A44" s="11">
+      <c r="K43" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15" customHeight="1">
+      <c r="A44" s="10">
         <v>42</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E44" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="25" t="s">
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="J44" s="25" t="s">
+      <c r="J44" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K44" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="1:11">
-      <c r="A45" s="11">
+      <c r="K44" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15" customHeight="1">
+      <c r="A45" s="10">
         <v>43</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="25" t="s">
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="J45" s="25" t="s">
+      <c r="J45" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K45" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="1:11">
-      <c r="A46" s="11">
+      <c r="K45" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15" customHeight="1">
+      <c r="A46" s="10">
         <v>44</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="E46" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="25" t="s">
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="J46" s="25" t="s">
+      <c r="J46" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K46" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="1:11">
-      <c r="A47" s="11">
+      <c r="K46" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15" customHeight="1">
+      <c r="A47" s="10">
         <v>45</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="E47" s="13" t="s">
+      <c r="E47" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="25" t="s">
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="J47" s="25" t="s">
+      <c r="J47" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K47" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="1:11">
-      <c r="A48" s="11">
+      <c r="K47" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15" customHeight="1">
+      <c r="A48" s="10">
         <v>46</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E48" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="25" t="s">
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="J48" s="25" t="s">
+      <c r="J48" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K48" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="1:11">
-      <c r="A49" s="11">
+      <c r="K48" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="15" customHeight="1">
+      <c r="A49" s="10">
         <v>47</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="E49" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="25" t="s">
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="J49" s="25" t="s">
+      <c r="J49" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K49" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="1:11">
-      <c r="A50" s="11">
+      <c r="K49" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="15" customHeight="1">
+      <c r="A50" s="10">
         <v>48</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="E50" s="13" t="s">
+      <c r="E50" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="25" t="s">
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="J50" s="25" t="s">
+      <c r="J50" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K50" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="1:11">
-      <c r="A51" s="11">
+      <c r="K50" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="15" customHeight="1">
+      <c r="A51" s="10">
         <v>49</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D51" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="E51" s="13" t="s">
+      <c r="E51" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="25" t="s">
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="J51" s="25" t="s">
+      <c r="J51" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K51" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="1:11">
-      <c r="A52" s="11">
+      <c r="K51" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="15" customHeight="1">
+      <c r="A52" s="10">
         <v>50</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="E52" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="25" t="s">
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="J52" s="25" t="s">
+      <c r="J52" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K52" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="1:11">
-      <c r="A53" s="11">
+      <c r="K52" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="15" customHeight="1">
+      <c r="A53" s="10">
         <v>51</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D53" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="E53" s="13" t="s">
+      <c r="E53" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="25" t="s">
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="J53" s="25" t="s">
+      <c r="J53" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K53" s="26">
+      <c r="K53" s="21">
         <v>359</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="1:11">
-      <c r="A54" s="11">
+    <row r="54" spans="1:11" ht="15" customHeight="1">
+      <c r="A54" s="10">
         <v>52</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D54" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="E54" s="13" t="s">
+      <c r="E54" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="25" t="s">
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="J54" s="25" t="s">
+      <c r="J54" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K54" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="55" customHeight="1" spans="1:11">
-      <c r="A55" s="11">
+      <c r="K54" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="15" customHeight="1">
+      <c r="A55" s="10">
         <v>53</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D55" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="E55" s="13" t="s">
+      <c r="E55" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="25" t="s">
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="J55" s="25" t="s">
+      <c r="J55" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K55" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="56" customHeight="1" spans="1:11">
-      <c r="A56" s="11">
+      <c r="K55" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="15" customHeight="1">
+      <c r="A56" s="10">
         <v>54</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="D56" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="E56" s="13" t="s">
+      <c r="E56" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="25" t="s">
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="J56" s="25" t="s">
+      <c r="J56" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K56" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="57" customHeight="1" spans="1:11">
-      <c r="A57" s="11">
+      <c r="K56" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="15" customHeight="1">
+      <c r="A57" s="10">
         <v>55</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D57" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="E57" s="13" t="s">
+      <c r="E57" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="25" t="s">
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="J57" s="25" t="s">
+      <c r="J57" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K57" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58" customHeight="1" spans="1:11">
-      <c r="A58" s="11">
+      <c r="K57" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="15" customHeight="1">
+      <c r="A58" s="10">
         <v>56</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="D58" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="E58" s="13" t="s">
+      <c r="E58" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="25" t="s">
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="J58" s="25" t="s">
+      <c r="J58" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K58" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="59" customHeight="1" spans="1:11">
-      <c r="A59" s="11">
+      <c r="K58" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="15" customHeight="1">
+      <c r="A59" s="10">
         <v>57</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C59" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="E59" s="13" t="s">
+      <c r="E59" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="25" t="s">
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="J59" s="25" t="s">
+      <c r="J59" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K59" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="60" customHeight="1" spans="1:11">
-      <c r="A60" s="11">
+      <c r="K59" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="15" customHeight="1">
+      <c r="A60" s="10">
         <v>58</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D60" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="E60" s="13" t="s">
+      <c r="E60" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="25" t="s">
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="J60" s="25" t="s">
+      <c r="J60" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K60" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="61" customHeight="1" spans="1:11">
-      <c r="A61" s="11">
+      <c r="K60" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="15" customHeight="1">
+      <c r="A61" s="10">
         <v>59</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C61" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="D61" s="12" t="s">
+      <c r="D61" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="E61" s="13" t="s">
+      <c r="E61" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="25" t="s">
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="J61" s="25" t="s">
+      <c r="J61" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K61" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="62" customHeight="1" spans="1:11">
-      <c r="A62" s="11">
+      <c r="K61" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="15" customHeight="1">
+      <c r="A62" s="10">
         <v>60</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C62" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="D62" s="12" t="s">
+      <c r="D62" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="E62" s="13" t="s">
+      <c r="E62" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="25" t="s">
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="J62" s="25" t="s">
+      <c r="J62" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K62" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="63" customHeight="1" spans="1:11">
-      <c r="A63" s="11">
+      <c r="K62" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="15" customHeight="1">
+      <c r="A63" s="10">
         <v>61</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="D63" s="12" t="s">
+      <c r="D63" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="E63" s="13" t="s">
+      <c r="E63" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="25" t="s">
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="J63" s="25" t="s">
+      <c r="J63" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K63" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="64" customHeight="1" spans="1:11">
-      <c r="A64" s="11">
+      <c r="K63" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="15" customHeight="1">
+      <c r="A64" s="10">
         <v>62</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C64" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="D64" s="12" t="s">
+      <c r="D64" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="E64" s="13" t="s">
+      <c r="E64" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="25" t="s">
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="J64" s="25" t="s">
+      <c r="J64" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K64" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="65" customHeight="1" spans="1:11">
-      <c r="A65" s="11">
+      <c r="K64" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="15" customHeight="1">
+      <c r="A65" s="10">
         <v>63</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C65" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="D65" s="12" t="s">
+      <c r="D65" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="E65" s="13" t="s">
+      <c r="E65" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="25" t="s">
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="J65" s="25" t="s">
+      <c r="J65" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K65" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="66" customHeight="1" spans="1:11">
-      <c r="A66" s="11">
+      <c r="K65" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="15" customHeight="1">
+      <c r="A66" s="10">
         <v>64</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C66" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="D66" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="E66" s="13" t="s">
+      <c r="E66" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="25" t="s">
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="J66" s="25" t="s">
+      <c r="J66" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K66" s="26">
+      <c r="K66" s="21">
         <v>352</v>
       </c>
     </row>
-    <row r="67" customHeight="1" spans="1:11">
-      <c r="A67" s="11">
+    <row r="67" spans="1:11" ht="15" customHeight="1">
+      <c r="A67" s="10">
         <v>65</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C67" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="D67" s="12" t="s">
+      <c r="D67" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="E67" s="13" t="s">
+      <c r="E67" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="25" t="s">
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="J67" s="25" t="s">
+      <c r="J67" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K67" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="68" customHeight="1" spans="1:11">
-      <c r="A68" s="11">
+      <c r="K67" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="15" customHeight="1">
+      <c r="A68" s="10">
         <v>66</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C68" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="D68" s="12" t="s">
+      <c r="D68" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="E68" s="13" t="s">
+      <c r="E68" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="25" t="s">
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="J68" s="25" t="s">
+      <c r="J68" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K68" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="69" customHeight="1" spans="1:11">
-      <c r="A69" s="11">
+      <c r="K68" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="15" customHeight="1">
+      <c r="A69" s="10">
         <v>67</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C69" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="D69" s="12" t="s">
+      <c r="D69" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="E69" s="13" t="s">
+      <c r="E69" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="25" t="s">
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="J69" s="25" t="s">
+      <c r="J69" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K69" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="70" customHeight="1" spans="1:11">
-      <c r="A70" s="11">
+      <c r="K69" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="15" customHeight="1">
+      <c r="A70" s="10">
         <v>68</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C70" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="D70" s="12" t="s">
+      <c r="D70" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="E70" s="13" t="s">
+      <c r="E70" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="25" t="s">
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="J70" s="25" t="s">
+      <c r="J70" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K70" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="71" customHeight="1" spans="1:11">
-      <c r="A71" s="11">
+      <c r="K70" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="15" customHeight="1">
+      <c r="A71" s="10">
         <v>69</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C71" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="D71" s="12" t="s">
+      <c r="D71" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="E71" s="13" t="s">
+      <c r="E71" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="25" t="s">
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="J71" s="25" t="s">
+      <c r="J71" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K71" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="72" customHeight="1" spans="1:11">
-      <c r="A72" s="11">
+      <c r="K71" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="15" customHeight="1">
+      <c r="A72" s="10">
         <v>70</v>
       </c>
-      <c r="B72" s="12" t="s">
+      <c r="B72" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="C72" s="12" t="s">
+      <c r="C72" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="D72" s="12" t="s">
+      <c r="D72" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="E72" s="13" t="s">
+      <c r="E72" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="25" t="s">
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="J72" s="25" t="s">
+      <c r="J72" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K72" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="73" customHeight="1" spans="1:11">
-      <c r="A73" s="11">
+      <c r="K72" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="15" customHeight="1">
+      <c r="A73" s="10">
         <v>71</v>
       </c>
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C73" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="D73" s="12" t="s">
+      <c r="D73" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="E73" s="13" t="s">
+      <c r="E73" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="25" t="s">
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="J73" s="25" t="s">
+      <c r="J73" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K73" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="74" customHeight="1" spans="1:11">
-      <c r="A74" s="11">
+      <c r="K73" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="15" customHeight="1">
+      <c r="A74" s="10">
         <v>72</v>
       </c>
-      <c r="B74" s="12" t="s">
+      <c r="B74" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="C74" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="D74" s="12" t="s">
+      <c r="D74" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="E74" s="13" t="s">
+      <c r="E74" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="25" t="s">
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="J74" s="25" t="s">
+      <c r="J74" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K74" s="26">
+      <c r="K74" s="21">
         <v>374</v>
       </c>
     </row>
-    <row r="75" customHeight="1" spans="1:11">
-      <c r="A75" s="11">
+    <row r="75" spans="1:11" ht="15" customHeight="1">
+      <c r="A75" s="10">
         <v>73</v>
       </c>
-      <c r="B75" s="12" t="s">
+      <c r="B75" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C75" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="D75" s="12" t="s">
+      <c r="D75" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="E75" s="13" t="s">
+      <c r="E75" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="25" t="s">
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="J75" s="25" t="s">
+      <c r="J75" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K75" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="76" s="15" customFormat="1" customHeight="1" spans="1:11">
-      <c r="A76" s="11">
+      <c r="K75" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" s="14" customFormat="1" ht="15" customHeight="1">
+      <c r="A76" s="10">
         <v>74</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="B76" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="C76" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="D76" s="12" t="s">
+      <c r="D76" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="E76" s="13" t="s">
+      <c r="E76" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="25" t="s">
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="J76" s="25" t="s">
+      <c r="J76" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K76" s="25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="77" customHeight="1" spans="1:11">
-      <c r="A77" s="11">
+      <c r="K76" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="15" customHeight="1">
+      <c r="A77" s="10">
         <v>75</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C77" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="D77" s="12" t="s">
+      <c r="D77" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="E77" s="13" t="s">
+      <c r="E77" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="25" t="s">
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="J77" s="25" t="s">
+      <c r="J77" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K77" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="78" customHeight="1" spans="1:11">
-      <c r="A78" s="11">
+      <c r="K77" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="15" customHeight="1">
+      <c r="A78" s="10">
         <v>76</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C78" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="D78" s="12" t="s">
+      <c r="D78" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="E78" s="13" t="s">
+      <c r="E78" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13"/>
-      <c r="I78" s="25" t="s">
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="J78" s="25" t="s">
+      <c r="J78" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K78" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="79" customHeight="1" spans="1:11">
-      <c r="A79" s="11">
+      <c r="K78" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="15" customHeight="1">
+      <c r="A79" s="10">
         <v>77</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="C79" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="D79" s="12" t="s">
+      <c r="D79" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="E79" s="13" t="s">
+      <c r="E79" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="25" t="s">
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="J79" s="25" t="s">
+      <c r="J79" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K79" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="80" customHeight="1" spans="1:11">
-      <c r="A80" s="11">
+      <c r="K79" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="15" customHeight="1">
+      <c r="A80" s="10">
         <v>78</v>
       </c>
-      <c r="B80" s="12" t="s">
+      <c r="B80" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="C80" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="D80" s="12" t="s">
+      <c r="D80" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="E80" s="13" t="s">
+      <c r="E80" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="25" t="s">
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="J80" s="25" t="s">
+      <c r="J80" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K80" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="81" customHeight="1" spans="1:11">
-      <c r="A81" s="11">
+      <c r="K80" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="15" customHeight="1">
+      <c r="A81" s="10">
         <v>79</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="B81" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="C81" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="D81" s="12" t="s">
+      <c r="D81" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="E81" s="13" t="s">
+      <c r="E81" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="25" t="s">
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="J81" s="25" t="s">
+      <c r="J81" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K81" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="82" customHeight="1" spans="1:11">
-      <c r="A82" s="11">
+      <c r="K81" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="15" customHeight="1">
+      <c r="A82" s="10">
         <v>80</v>
       </c>
-      <c r="B82" s="12" t="s">
+      <c r="B82" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="C82" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="D82" s="12" t="s">
+      <c r="D82" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="E82" s="13" t="s">
+      <c r="E82" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="25" t="s">
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="J82" s="25" t="s">
+      <c r="J82" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K82" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="83" customHeight="1" spans="1:11">
-      <c r="A83" s="11">
+      <c r="K82" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="15" customHeight="1">
+      <c r="A83" s="10">
         <v>81</v>
       </c>
-      <c r="B83" s="12" t="s">
+      <c r="B83" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C83" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="D83" s="12" t="s">
+      <c r="D83" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="E83" s="13" t="s">
+      <c r="E83" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="25" t="s">
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="J83" s="25" t="s">
+      <c r="J83" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K83" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="84" customHeight="1" spans="1:11">
-      <c r="A84" s="11">
+      <c r="K83" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="15" customHeight="1">
+      <c r="A84" s="10">
         <v>82</v>
       </c>
-      <c r="B84" s="12" t="s">
+      <c r="B84" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="C84" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="D84" s="12" t="s">
+      <c r="D84" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="E84" s="13" t="s">
+      <c r="E84" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="25" t="s">
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="J84" s="25" t="s">
+      <c r="J84" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K84" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="85" customHeight="1" spans="1:11">
-      <c r="A85" s="11">
+      <c r="K84" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="15" customHeight="1">
+      <c r="A85" s="10">
         <v>83</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="B85" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="C85" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="D85" s="12" t="s">
+      <c r="D85" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="E85" s="13" t="s">
+      <c r="E85" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13"/>
-      <c r="I85" s="25" t="s">
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="J85" s="25" t="s">
+      <c r="J85" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K85" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="86" customHeight="1" spans="1:11">
-      <c r="A86" s="11">
+      <c r="K85" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="15" customHeight="1">
+      <c r="A86" s="10">
         <v>84</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="B86" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="C86" s="12" t="s">
+      <c r="C86" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="D86" s="12" t="s">
+      <c r="D86" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="E86" s="13" t="s">
+      <c r="E86" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="13"/>
-      <c r="I86" s="25" t="s">
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="J86" s="25" t="s">
+      <c r="J86" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K86" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="87" customHeight="1" spans="1:11">
-      <c r="A87" s="11">
+      <c r="K86" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="15" customHeight="1">
+      <c r="A87" s="10">
         <v>85</v>
       </c>
-      <c r="B87" s="12" t="s">
+      <c r="B87" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="C87" s="12" t="s">
+      <c r="C87" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="D87" s="12" t="s">
+      <c r="D87" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="E87" s="13" t="s">
+      <c r="E87" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13"/>
-      <c r="I87" s="25" t="s">
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="J87" s="25" t="s">
+      <c r="J87" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K87" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="88" customHeight="1" spans="1:11">
-      <c r="A88" s="11">
+      <c r="K87" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="15" customHeight="1">
+      <c r="A88" s="10">
         <v>86</v>
       </c>
-      <c r="B88" s="12" t="s">
+      <c r="B88" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="C88" s="12" t="s">
+      <c r="C88" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="D88" s="12" t="s">
+      <c r="D88" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="E88" s="13" t="s">
+      <c r="E88" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
-      <c r="I88" s="25" t="s">
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="J88" s="25" t="s">
+      <c r="J88" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K88" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="89" customHeight="1" spans="1:11">
-      <c r="A89" s="11">
+      <c r="K88" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="15" customHeight="1">
+      <c r="A89" s="10">
         <v>87</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="C89" s="12" t="s">
+      <c r="C89" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="D89" s="12" t="s">
+      <c r="D89" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="E89" s="13" t="s">
+      <c r="E89" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="F89" s="13"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13"/>
-      <c r="I89" s="25" t="s">
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="J89" s="25" t="s">
+      <c r="J89" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K89" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="90" customHeight="1" spans="1:11">
-      <c r="A90" s="11">
+      <c r="K89" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="15" customHeight="1">
+      <c r="A90" s="10">
         <v>88</v>
       </c>
-      <c r="B90" s="12" t="s">
+      <c r="B90" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="C90" s="12" t="s">
+      <c r="C90" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="D90" s="12" t="s">
+      <c r="D90" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="E90" s="13" t="s">
+      <c r="E90" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="13"/>
-      <c r="I90" s="25" t="s">
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="J90" s="25" t="s">
+      <c r="J90" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K90" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="91" customHeight="1" spans="1:11">
-      <c r="A91" s="11">
+      <c r="K90" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="15" customHeight="1">
+      <c r="A91" s="10">
         <v>89</v>
       </c>
-      <c r="B91" s="12" t="s">
+      <c r="B91" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="C91" s="12" t="s">
+      <c r="C91" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="D91" s="12" t="s">
+      <c r="D91" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="E91" s="13" t="s">
+      <c r="E91" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="25" t="s">
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="J91" s="25" t="s">
+      <c r="J91" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K91" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="92" customHeight="1" spans="1:11">
-      <c r="A92" s="11">
+      <c r="K91" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="15" customHeight="1">
+      <c r="A92" s="10">
         <v>90</v>
       </c>
-      <c r="B92" s="12" t="s">
+      <c r="B92" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="C92" s="12" t="s">
+      <c r="C92" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="D92" s="12" t="s">
+      <c r="D92" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="E92" s="13" t="s">
+      <c r="E92" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="F92" s="13"/>
-      <c r="G92" s="13"/>
-      <c r="H92" s="13"/>
-      <c r="I92" s="25" t="s">
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="J92" s="25" t="s">
+      <c r="J92" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K92" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="93" customHeight="1" spans="1:11">
-      <c r="A93" s="11">
+      <c r="K92" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="15" customHeight="1">
+      <c r="A93" s="10">
         <v>91</v>
       </c>
-      <c r="B93" s="12" t="s">
+      <c r="B93" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="C93" s="12" t="s">
+      <c r="C93" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="D93" s="12" t="s">
+      <c r="D93" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="E93" s="13" t="s">
+      <c r="E93" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="F93" s="13"/>
-      <c r="G93" s="13"/>
-      <c r="H93" s="13"/>
-      <c r="I93" s="25" t="s">
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="J93" s="25" t="s">
+      <c r="J93" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K93" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="94" customHeight="1" spans="1:11">
-      <c r="A94" s="11">
+      <c r="K93" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="15" customHeight="1">
+      <c r="A94" s="10">
         <v>92</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="B94" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="C94" s="12" t="s">
+      <c r="C94" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="D94" s="12" t="s">
+      <c r="D94" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="E94" s="13" t="s">
+      <c r="E94" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="13"/>
-      <c r="I94" s="25" t="s">
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="J94" s="25" t="s">
+      <c r="J94" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K94" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="95" customHeight="1" spans="1:11">
-      <c r="A95" s="11">
+      <c r="K94" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="15" customHeight="1">
+      <c r="A95" s="10">
         <v>93</v>
       </c>
-      <c r="B95" s="12" t="s">
+      <c r="B95" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="C95" s="12" t="s">
+      <c r="C95" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="D95" s="12" t="s">
+      <c r="D95" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="E95" s="13" t="s">
+      <c r="E95" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="F95" s="13"/>
-      <c r="G95" s="13"/>
-      <c r="H95" s="13"/>
-      <c r="I95" s="25" t="s">
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="J95" s="25" t="s">
+      <c r="J95" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K95" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="96" customHeight="1" spans="1:11">
-      <c r="A96" s="11">
+      <c r="K95" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="15" customHeight="1">
+      <c r="A96" s="10">
         <v>94</v>
       </c>
-      <c r="B96" s="12" t="s">
+      <c r="B96" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="C96" s="12" t="s">
+      <c r="C96" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="D96" s="12" t="s">
+      <c r="D96" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="E96" s="13" t="s">
+      <c r="E96" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="F96" s="13"/>
-      <c r="G96" s="13"/>
-      <c r="H96" s="13"/>
-      <c r="I96" s="25" t="s">
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="J96" s="25" t="s">
+      <c r="J96" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K96" s="26">
+      <c r="K96" s="21">
         <v>220</v>
       </c>
     </row>
-    <row r="97" customHeight="1" spans="1:11">
-      <c r="A97" s="11">
+    <row r="97" spans="1:11" ht="15" customHeight="1">
+      <c r="A97" s="10">
         <v>95</v>
       </c>
-      <c r="B97" s="12" t="s">
+      <c r="B97" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="C97" s="12" t="s">
+      <c r="C97" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="D97" s="12" t="s">
+      <c r="D97" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="E97" s="13" t="s">
+      <c r="E97" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="F97" s="13"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="13"/>
-      <c r="I97" s="25" t="s">
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="J97" s="25" t="s">
+      <c r="J97" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K97" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="98" customHeight="1" spans="1:11">
-      <c r="A98" s="11">
+      <c r="K97" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="15" customHeight="1">
+      <c r="A98" s="10">
         <v>96</v>
       </c>
-      <c r="B98" s="12" t="s">
+      <c r="B98" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="C98" s="12" t="s">
+      <c r="C98" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="D98" s="12" t="s">
+      <c r="D98" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="E98" s="13" t="s">
+      <c r="E98" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="13"/>
-      <c r="I98" s="25" t="s">
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="J98" s="25" t="s">
+      <c r="J98" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K98" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="99" customHeight="1" spans="1:11">
-      <c r="A99" s="11">
+      <c r="K98" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="15" customHeight="1">
+      <c r="A99" s="10">
         <v>97</v>
       </c>
-      <c r="B99" s="12" t="s">
+      <c r="B99" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="C99" s="12" t="s">
+      <c r="C99" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="D99" s="12" t="s">
+      <c r="D99" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="E99" s="13" t="s">
+      <c r="E99" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="F99" s="13"/>
-      <c r="G99" s="13"/>
-      <c r="H99" s="13"/>
-      <c r="I99" s="25" t="s">
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="J99" s="25" t="s">
+      <c r="J99" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K99" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="100" customHeight="1" spans="1:11">
-      <c r="A100" s="11">
+      <c r="K99" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="15" customHeight="1">
+      <c r="A100" s="10">
         <v>98</v>
       </c>
-      <c r="B100" s="12" t="s">
+      <c r="B100" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="C100" s="12" t="s">
+      <c r="C100" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="D100" s="12" t="s">
+      <c r="D100" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="E100" s="13" t="s">
+      <c r="E100" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="F100" s="13"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="13"/>
-      <c r="I100" s="25" t="s">
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="J100" s="25" t="s">
+      <c r="J100" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K100" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="101" customHeight="1" spans="1:11">
-      <c r="A101" s="11">
+      <c r="K100" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="15" customHeight="1">
+      <c r="A101" s="10">
         <v>99</v>
       </c>
-      <c r="B101" s="12" t="s">
+      <c r="B101" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="C101" s="12" t="s">
+      <c r="C101" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="D101" s="12" t="s">
+      <c r="D101" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="E101" s="13" t="s">
+      <c r="E101" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="F101" s="13"/>
-      <c r="G101" s="13"/>
-      <c r="H101" s="13"/>
-      <c r="I101" s="25" t="s">
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="J101" s="25" t="s">
+      <c r="J101" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K101" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="102" customHeight="1" spans="1:11">
-      <c r="A102" s="11">
+      <c r="K101" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="15" customHeight="1">
+      <c r="A102" s="10">
         <v>100</v>
       </c>
-      <c r="B102" s="12" t="s">
+      <c r="B102" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="C102" s="12" t="s">
+      <c r="C102" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="D102" s="12" t="s">
+      <c r="D102" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="E102" s="13" t="s">
+      <c r="E102" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="F102" s="13"/>
-      <c r="G102" s="13"/>
-      <c r="H102" s="13"/>
-      <c r="I102" s="25" t="s">
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="J102" s="25" t="s">
+      <c r="J102" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K102" s="11" t="s">
+      <c r="K102" s="10" t="s">
         <v>41</v>
       </c>
     </row>
@@ -5950,21 +5397,20 @@
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="3" width="16.625" customWidth="1"/>
@@ -5973,1213 +5419,1213 @@
     <col min="6" max="6" width="42.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:6">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" ht="15">
+      <c r="A1" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" ht="15" spans="1:6">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" ht="15">
+      <c r="A2" s="58"/>
+      <c r="B2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:6">
-      <c r="A3" s="11">
+    <row r="3" spans="1:6" ht="15" customHeight="1">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:6">
-      <c r="A4" s="11">
+    <row r="4" spans="1:6" ht="15" customHeight="1">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:6">
-      <c r="A5" s="11">
+    <row r="5" spans="1:6" ht="15" customHeight="1">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:6">
-      <c r="A6" s="11">
+    <row r="6" spans="1:6" ht="16.5">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:6">
-      <c r="A7" s="11">
+    <row r="7" spans="1:6" ht="16.5">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:6">
-      <c r="A8" s="11">
+    <row r="8" spans="1:6" ht="16.5">
+      <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:6">
-      <c r="A9" s="11">
+    <row r="9" spans="1:6" ht="16.5">
+      <c r="A9" s="10">
         <v>7</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:6">
-      <c r="A10" s="11">
+    <row r="10" spans="1:6" ht="16.5">
+      <c r="A10" s="10">
         <v>8</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:6">
-      <c r="A11" s="11">
+    <row r="11" spans="1:6" ht="16.5">
+      <c r="A11" s="10">
         <v>9</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:6">
-      <c r="A12" s="11">
+    <row r="12" spans="1:6" ht="16.5">
+      <c r="A12" s="10">
         <v>10</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:6">
-      <c r="A13" s="11">
+    <row r="13" spans="1:6" ht="16.5">
+      <c r="A13" s="10">
         <v>11</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:6">
-      <c r="A14" s="11">
+    <row r="14" spans="1:6" ht="16.5">
+      <c r="A14" s="10">
         <v>12</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:6">
-      <c r="A15" s="11">
+    <row r="15" spans="1:6" ht="16.5">
+      <c r="A15" s="10">
         <v>13</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="12" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:6">
-      <c r="A16" s="11">
+    <row r="16" spans="1:6" ht="16.5">
+      <c r="A16" s="10">
         <v>14</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="12" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:6">
-      <c r="A17" s="11">
+    <row r="17" spans="1:6" ht="16.5">
+      <c r="A17" s="10">
         <v>15</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:6">
-      <c r="A18" s="11">
+    <row r="18" spans="1:6" ht="16.5">
+      <c r="A18" s="10">
         <v>16</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:6">
-      <c r="A19" s="11">
+    <row r="19" spans="1:6" ht="16.5">
+      <c r="A19" s="10">
         <v>17</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:6">
-      <c r="A20" s="11">
+    <row r="20" spans="1:6" ht="16.5">
+      <c r="A20" s="10">
         <v>18</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="12" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:6">
-      <c r="A21" s="11">
+    <row r="21" spans="1:6" ht="16.5">
+      <c r="A21" s="10">
         <v>19</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="12" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:6">
-      <c r="A22" s="11">
+    <row r="22" spans="1:6" ht="16.5">
+      <c r="A22" s="10">
         <v>20</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="12" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:6">
-      <c r="A23" s="11">
+    <row r="23" spans="1:6" ht="16.5">
+      <c r="A23" s="10">
         <v>21</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="12" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:6">
-      <c r="A24" s="11">
+    <row r="24" spans="1:6" ht="16.5">
+      <c r="A24" s="10">
         <v>22</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="12" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:6">
-      <c r="A25" s="11">
+    <row r="25" spans="1:6" ht="16.5">
+      <c r="A25" s="10">
         <v>23</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:6">
-      <c r="A26" s="11">
+    <row r="26" spans="1:6" ht="16.5">
+      <c r="A26" s="10">
         <v>24</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="12" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:6">
-      <c r="A27" s="11">
+    <row r="27" spans="1:6" ht="16.5">
+      <c r="A27" s="10">
         <v>25</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="28" ht="16.5" spans="1:6">
-      <c r="A28" s="11">
+      <c r="F27" s="12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16.5">
+      <c r="A28" s="10">
         <v>26</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="F28" s="13" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="29" ht="16.5" spans="1:6">
-      <c r="A29" s="11">
+      <c r="F28" s="59" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16.5">
+      <c r="A29" s="10">
         <v>27</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="F29" s="13" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="30" ht="16.5" spans="1:6">
-      <c r="A30" s="11">
+      <c r="F29" s="59" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16.5">
+      <c r="A30" s="10">
         <v>28</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="F30" s="13" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="31" ht="16.5" spans="1:6">
-      <c r="A31" s="11">
+      <c r="F30" s="59" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16.5">
+      <c r="A31" s="10">
         <v>29</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="E31" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="32" ht="16.5" spans="1:6">
-      <c r="A32" s="11">
+      <c r="E31" s="59" t="s">
+        <v>338</v>
+      </c>
+      <c r="F31" s="59" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="16.5">
+      <c r="A32" s="10">
         <v>30</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="F32" s="13" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="33" ht="16.5" spans="1:6">
-      <c r="A33" s="11">
+      <c r="F32" s="59" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="16.5">
+      <c r="A33" s="10">
         <v>31</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="12" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="1:6">
-      <c r="A34" s="11">
+    <row r="34" spans="1:6" ht="16.5">
+      <c r="A34" s="10">
         <v>32</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="12" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="1:6">
-      <c r="A35" s="11">
+    <row r="35" spans="1:6" ht="16.5">
+      <c r="A35" s="10">
         <v>33</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="12" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="1:6">
-      <c r="A36" s="11">
+    <row r="36" spans="1:6" ht="16.5">
+      <c r="A36" s="10">
         <v>34</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="12" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="37" ht="16.5" spans="1:6">
-      <c r="A37" s="11">
+    <row r="37" spans="1:6" ht="16.5">
+      <c r="A37" s="10">
         <v>35</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="12" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="38" ht="16.5" spans="1:6">
-      <c r="A38" s="11">
+    <row r="38" spans="1:6" ht="16.5">
+      <c r="A38" s="10">
         <v>36</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="12" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="39" ht="16.5" spans="1:6">
-      <c r="A39" s="11">
+    <row r="39" spans="1:6" ht="16.5">
+      <c r="A39" s="10">
         <v>37</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="12" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="40" ht="16.5" spans="1:6">
-      <c r="A40" s="11">
+    <row r="40" spans="1:6" ht="16.5">
+      <c r="A40" s="10">
         <v>38</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="12" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="41" ht="16.5" spans="1:6">
-      <c r="A41" s="11">
+    <row r="41" spans="1:6" ht="16.5">
+      <c r="A41" s="10">
         <v>39</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="12" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="42" ht="16.5" spans="1:6">
-      <c r="A42" s="11">
+    <row r="42" spans="1:6" ht="16.5">
+      <c r="A42" s="10">
         <v>40</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="E42" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="12" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="43" ht="16.5" spans="1:6">
-      <c r="A43" s="11">
-        <v>41</v>
-      </c>
-      <c r="B43" s="12" t="s">
+    <row r="43" spans="1:6" ht="16.5">
+      <c r="A43" s="10">
+        <v>41</v>
+      </c>
+      <c r="B43" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="12" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="44" ht="16.5" spans="1:6">
-      <c r="A44" s="11">
+    <row r="44" spans="1:6" ht="16.5">
+      <c r="A44" s="10">
         <v>42</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E44" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="F44" s="12" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="45" ht="16.5" spans="1:6">
-      <c r="A45" s="11">
+    <row r="45" spans="1:6" ht="16.5">
+      <c r="A45" s="10">
         <v>43</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="F45" s="13" t="s">
+      <c r="F45" s="12" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="46" ht="16.5" spans="1:6">
-      <c r="A46" s="11">
+    <row r="46" spans="1:6" ht="16.5">
+      <c r="A46" s="10">
         <v>44</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="E46" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="F46" s="13" t="s">
+      <c r="F46" s="12" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="47" ht="16.5" spans="1:6">
-      <c r="A47" s="11">
+    <row r="47" spans="1:6" ht="16.5">
+      <c r="A47" s="10">
         <v>45</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="E47" s="13" t="s">
+      <c r="E47" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="F47" s="13" t="s">
+      <c r="F47" s="12" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="48" ht="16.5" spans="1:6">
-      <c r="A48" s="11">
+    <row r="48" spans="1:6" ht="16.5">
+      <c r="A48" s="10">
         <v>46</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E48" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F48" s="12" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="49" ht="16.5" spans="1:6">
-      <c r="A49" s="11">
+    <row r="49" spans="1:6" ht="16.5">
+      <c r="A49" s="10">
         <v>47</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="E49" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="F49" s="13" t="s">
+      <c r="F49" s="12" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="50" ht="16.5" spans="1:6">
-      <c r="A50" s="11">
+    <row r="50" spans="1:6" ht="16.5">
+      <c r="A50" s="10">
         <v>48</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="E50" s="13" t="s">
+      <c r="E50" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="F50" s="13" t="s">
+      <c r="F50" s="12" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="51" ht="16.5" spans="1:6">
-      <c r="A51" s="11">
+    <row r="51" spans="1:6" ht="16.5">
+      <c r="A51" s="10">
         <v>49</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D51" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="E51" s="13" t="s">
+      <c r="E51" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="F51" s="13" t="s">
+      <c r="F51" s="12" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="52" ht="16.5" spans="1:6">
-      <c r="A52" s="11">
+    <row r="52" spans="1:6" ht="16.5">
+      <c r="A52" s="10">
         <v>50</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="E52" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="F52" s="13" t="s">
+      <c r="F52" s="12" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="53" ht="16.5" spans="1:6">
-      <c r="A53" s="11">
+    <row r="53" spans="1:6" ht="16.5">
+      <c r="A53" s="10">
         <v>51</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D53" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="E53" s="13" t="s">
+      <c r="E53" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="F53" s="13" t="s">
+      <c r="F53" s="12" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="54" ht="16.5" spans="1:6">
-      <c r="A54" s="11">
+    <row r="54" spans="1:6" ht="16.5">
+      <c r="A54" s="10">
         <v>52</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D54" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="E54" s="13" t="s">
+      <c r="E54" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="F54" s="13" t="s">
+      <c r="F54" s="12" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="55" ht="16.5" spans="1:6">
-      <c r="A55" s="11">
+    <row r="55" spans="1:6" ht="16.5">
+      <c r="A55" s="10">
         <v>53</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D55" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="E55" s="13" t="s">
+      <c r="E55" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="F55" s="13" t="s">
+      <c r="F55" s="12" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="56" ht="16.5" spans="1:6">
-      <c r="A56" s="11">
+    <row r="56" spans="1:6" ht="16.5">
+      <c r="A56" s="10">
         <v>54</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="D56" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="E56" s="13" t="s">
+      <c r="E56" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="F56" s="13" t="s">
+      <c r="F56" s="12" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="57" ht="16.5" spans="1:6">
-      <c r="A57" s="11">
+    <row r="57" spans="1:6" ht="16.5">
+      <c r="A57" s="10">
         <v>55</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D57" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="E57" s="13" t="s">
+      <c r="E57" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="F57" s="13" t="s">
+      <c r="F57" s="12" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="58" ht="16.5" spans="1:6">
-      <c r="A58" s="11">
+    <row r="58" spans="1:6" ht="16.5">
+      <c r="A58" s="10">
         <v>56</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="D58" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="E58" s="13" t="s">
+      <c r="E58" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="F58" s="13" t="s">
+      <c r="F58" s="12" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="59" ht="16.5" spans="1:6">
-      <c r="A59" s="11">
+    <row r="59" spans="1:6" ht="16.5">
+      <c r="A59" s="10">
         <v>57</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C59" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="E59" s="13" t="s">
+      <c r="E59" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="F59" s="13" t="s">
+      <c r="F59" s="12" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="60" ht="16.5" spans="1:6">
-      <c r="A60" s="11">
+    <row r="60" spans="1:6" ht="16.5">
+      <c r="A60" s="10">
         <v>58</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D60" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="E60" s="13" t="s">
+      <c r="E60" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="F60" s="13" t="s">
+      <c r="F60" s="12" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="61" ht="16.5" spans="1:6">
-      <c r="A61" s="11">
+    <row r="61" spans="1:6" ht="16.5">
+      <c r="A61" s="10">
         <v>59</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C61" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="D61" s="12" t="s">
+      <c r="D61" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="E61" s="13" t="s">
+      <c r="E61" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="F61" s="13" t="s">
+      <c r="F61" s="12" t="s">
         <v>328</v>
       </c>
     </row>
@@ -7187,7 +6633,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>